--- a/biology/Botanique/Clematis_patens_'Evipo030'/Clematis_patens_'Evipo030'.xlsx
+++ b/biology/Botanique/Clematis_patens_'Evipo030'/Clematis_patens_'Evipo030'.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Clematis_patens_%27Evipo030%27</t>
+          <t>Clematis_patens_'Evipo030'</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La clématite patens 'Evipo030' est un cultivar de clématite obtenu en 2003 par Raymond Evison en Angleterre. Elle porte le nom commercial de clématite patens Bijou 'Evipo061'.
 Bijou fut présenté au Chelsea Flower Show en 2004.
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Clematis_patens_%27Evipo030%27</t>
+          <t>Clematis_patens_'Evipo030'</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,23 +526,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette clématite fait partie du groupe 2, ce qui signifie que ce cultivar donnera une floraison printanière sur la pousse de l'année précédente et une seconde à l'automne sur les pousses de l'année.
-Feuilles
-Les feuilles caduques de cette clématite sont parfois simples, parfois alternes et trifoliées. en moyenne elles mesurent 8 cm[1]. De mars à octobre les feuilles sont vertes, en novembre elles virent au jaune orangé juste avant de tomber.
-Tiges
-Les tiges de la clématite Bijou apparaissent de couleur verte sur les pousses de l'année, en vieillissant le bois se durcit et devient rougeâtre et marron.
-Fleurs
-La clématite Bijou dispose d'une fleur de taille moyenne bleue atteignant 14 cm en moyenne. Les fleurs de ce cultivar apparaissent la plupart du temps sur l'ensemble de la plante en mai et juin pour la floraison printanière et en septembre pour la floraison d'automne. Lors de la fanaison la couleur des sépales vire légèrement au bleu pâle.
-Bouton floral et pédoncule
-Le bouton floral de Bijou est allongé et ovoïde d'environ 3 cm à 4 cm, de couleur vert/gris à un quart de son ouverture. Le pédoncule quant à lui mesure environ 4 mm à 6 mm de couleur vert également.
-Sépales
-Les sépales de la clématite Bijou mesurent entre 5 cm et 6 cm de long. Ils sont ondulés et striés le long de la nervure centrale.
-Étamines et stigmates
-Bijou possède des  étamines de couleur jaune et des stigmates de couleur bronze s'accordant parfaitement avec le bleu du sépale.
-Parfum
-Cette clématite n'a pas de parfum.
 </t>
         </is>
       </c>
@@ -541,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Clematis_patens_%27Evipo030%27</t>
+          <t>Clematis_patens_'Evipo030'</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -556,12 +556,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Obtention</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">La reproduction asexuée de ce cultivar pour la commercialisation a commencé dans les pépinières de Raymond Evison sur l’île de Guernesey en 2003, dans le but de produire une clématite à port compact et très florifère. Cette obtention fait partie du programme d'hybridation de Evison &amp; Poulsen.
+          <t>Feuilles</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les feuilles caduques de cette clématite sont parfois simples, parfois alternes et trifoliées. en moyenne elles mesurent 8 cm. De mars à octobre les feuilles sont vertes, en novembre elles virent au jaune orangé juste avant de tomber.
 </t>
         </is>
       </c>
@@ -572,7 +578,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Clematis_patens_%27Evipo030%27</t>
+          <t>Clematis_patens_'Evipo030'</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -587,12 +593,18 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Protection</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">'Evipo030' est protégé par l'Union pour la protection des obtentions végétales sous licence PBR &amp; PPaf. Le nom commercial 'Bijou' est protégé par une licence trademark.
+          <t>Tiges</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les tiges de la clématite Bijou apparaissent de couleur verte sur les pousses de l'année, en vieillissant le bois se durcit et devient rougeâtre et marron.
 </t>
         </is>
       </c>
@@ -603,7 +615,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Clematis_patens_%27Evipo030%27</t>
+          <t>Clematis_patens_'Evipo030'</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -618,25 +630,507 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Fleurs</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La clématite Bijou dispose d'une fleur de taille moyenne bleue atteignant 14 cm en moyenne. Les fleurs de ce cultivar apparaissent la plupart du temps sur l'ensemble de la plante en mai et juin pour la floraison printanière et en septembre pour la floraison d'automne. Lors de la fanaison la couleur des sépales vire légèrement au bleu pâle.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Clematis_patens_'Evipo030'</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Clematis_patens_%27Evipo030%27</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Fleurs</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Bouton floral et pédoncule</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le bouton floral de Bijou est allongé et ovoïde d'environ 3 cm à 4 cm, de couleur vert/gris à un quart de son ouverture. Le pédoncule quant à lui mesure environ 4 mm à 6 mm de couleur vert également.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Clematis_patens_'Evipo030'</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Clematis_patens_%27Evipo030%27</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Fleurs</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Sépales</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les sépales de la clématite Bijou mesurent entre 5 cm et 6 cm de long. Ils sont ondulés et striés le long de la nervure centrale.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Clematis_patens_'Evipo030'</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Clematis_patens_%27Evipo030%27</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Fleurs</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Étamines et stigmates</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bijou possède des  étamines de couleur jaune et des stigmates de couleur bronze s'accordant parfaitement avec le bleu du sépale.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Clematis_patens_'Evipo030'</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Clematis_patens_%27Evipo030%27</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Fleurs</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Parfum</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette clématite n'a pas de parfum.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Clematis_patens_'Evipo030'</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Clematis_patens_%27Evipo030%27</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Obtention</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La reproduction asexuée de ce cultivar pour la commercialisation a commencé dans les pépinières de Raymond Evison sur l’île de Guernesey en 2003, dans le but de produire une clématite à port compact et très florifère. Cette obtention fait partie du programme d'hybridation de Evison &amp; Poulsen.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Clematis_patens_'Evipo030'</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Clematis_patens_%27Evipo030%27</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'Evipo030' est protégé par l'Union pour la protection des obtentions végétales sous licence PBR &amp; PPaf. Le nom commercial 'Bijou' est protégé par une licence trademark.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Clematis_patens_'Evipo030'</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Clematis_patens_%27Evipo030%27</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
           <t>Culture</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Plantation
-La clématite Bijou s'épanouit très bien en pot ou en pleine terre. Elle doit être plantée dans un mélange drainant, fertile et léger. Les racines préfèrent  un sol frais et ombragé.
-Croissance
-À taille adulte cette clématite dispose d'une croissance importante entre 0.50 et 1 mètre[1].
-Floraison
-Bijou fleurit deux fois par an sur les pousses de l'année précédente du mois de mai et juin pour la floraison printanière et entre août  et septembre pour la floraison sur le bois de l'année de l'automne. Elle fait partie du groupe 2[1].
-Utilisations
-Bijou est parfait pour les petites structures, mais pousse également sans support. Elle peut aussi grimper sur des supports naturels tels que les feuillus, des conifères et des arbustes.
-Taille
-La clématite Bijou a besoin d'une taille annuelle, souvent au mois de mars mais à toute période de repos végétatif. Elle demande une taille modérée, c'est-à-dire une taille de 15 cm ou au tiers des branches.
-Résistance
-Cette clématite résiste à des températures jusqu'à moins 20 degrés Celsius.
-Maladies et ravageurs
-La clématite 'Bijou' est sensible à l'excès d'eau ce qui pourrait provoquer une pourriture du collet de la plante et ainsi la mort de la clématite. Elle peut également souffrir d'apoplexie due à un champignon appelé Ascochyta clematidina, provoquant un flétrissement brutal des feuilles. Pour combattre ce champignon la terre doit être remplacée sur 20 cm et l'excès d'eau doit être proscrit.
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Plantation</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La clématite Bijou s'épanouit très bien en pot ou en pleine terre. Elle doit être plantée dans un mélange drainant, fertile et léger. Les racines préfèrent  un sol frais et ombragé.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Clematis_patens_'Evipo030'</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Clematis_patens_%27Evipo030%27</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Culture</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Croissance</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">À taille adulte cette clématite dispose d'une croissance importante entre 0.50 et 1 mètre.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Clematis_patens_'Evipo030'</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Clematis_patens_%27Evipo030%27</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Culture</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Floraison</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bijou fleurit deux fois par an sur les pousses de l'année précédente du mois de mai et juin pour la floraison printanière et entre août  et septembre pour la floraison sur le bois de l'année de l'automne. Elle fait partie du groupe 2.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Clematis_patens_'Evipo030'</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Clematis_patens_%27Evipo030%27</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Culture</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Utilisations</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bijou est parfait pour les petites structures, mais pousse également sans support. Elle peut aussi grimper sur des supports naturels tels que les feuillus, des conifères et des arbustes.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Clematis_patens_'Evipo030'</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Clematis_patens_%27Evipo030%27</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Culture</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Taille</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La clématite Bijou a besoin d'une taille annuelle, souvent au mois de mars mais à toute période de repos végétatif. Elle demande une taille modérée, c'est-à-dire une taille de 15 cm ou au tiers des branches.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Clematis_patens_'Evipo030'</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Clematis_patens_%27Evipo030%27</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Culture</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Résistance</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette clématite résiste à des températures jusqu'à moins 20 degrés Celsius.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Clematis_patens_'Evipo030'</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Clematis_patens_%27Evipo030%27</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Culture</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Maladies et ravageurs</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La clématite 'Bijou' est sensible à l'excès d'eau ce qui pourrait provoquer une pourriture du collet de la plante et ainsi la mort de la clématite. Elle peut également souffrir d'apoplexie due à un champignon appelé Ascochyta clematidina, provoquant un flétrissement brutal des feuilles. Pour combattre ce champignon la terre doit être remplacée sur 20 cm et l'excès d'eau doit être proscrit.
 Les limaces peuvent également s'attaquer à cette clématite et notamment aux jeunes pousses du printemps.
 Selon le site de Raymond Evison cette clématite devait être présentée sous le nom de clématite patens 'thumbelina'.
 </t>
